--- a/docs/ESP32-S3-willy.xlsx
+++ b/docs/ESP32-S3-willy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\03.robotics\esp32_willy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\03.robotics\esp32_willy\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0326769A-7DF2-44AD-BF71-6B864DE0F400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32100" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esp32-s3" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="196">
   <si>
     <t>ASSIGNMENT</t>
   </si>
@@ -760,11 +761,15 @@
     <t>BATT_SENSE</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>Not use for OctalPSRAM</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="29">
     <font>
       <sz val="11"/>
@@ -1157,7 +1162,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="74">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1174,7 +1179,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,15 +1217,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1311,7 +1307,7 @@
     <xf numFmtId="0" fontId="26" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1330,8 +1326,8 @@
     <xf numFmtId="0" fontId="23" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1353,6 +1349,15 @@
     <xf numFmtId="0" fontId="28" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1388,7 +1393,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1431,7 +1442,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1469,7 +1486,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1507,7 +1530,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1545,7 +1574,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1583,7 +1618,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1621,7 +1662,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1659,7 +1706,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1702,7 +1755,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1740,7 +1799,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1778,7 +1843,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1816,7 +1887,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1854,7 +1931,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1892,7 +1975,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1907,6 +1996,50 @@
         <a:xfrm>
           <a:off x="15944850" y="7550150"/>
           <a:ext cx="4399133" cy="2735595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2628900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>534965</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3A7C8C-56C5-4240-B475-E0E7B8A50618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16116300" y="5127456"/>
+          <a:ext cx="4237015" cy="2556044"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1930,7 +2063,13 @@
     <xdr:ext cx="3581400" cy="6591300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image10.png"/>
+        <xdr:cNvPr id="2" name="image10.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1958,7 +2097,13 @@
     <xdr:ext cx="3638550" cy="3981450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image11.png"/>
+        <xdr:cNvPr id="3" name="image11.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1986,7 +2131,13 @@
     <xdr:ext cx="3619500" cy="3981450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image13.png"/>
+        <xdr:cNvPr id="4" name="image13.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2014,7 +2165,13 @@
     <xdr:ext cx="3971925" cy="3962400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image14.png"/>
+        <xdr:cNvPr id="5" name="image14.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2232,7 +2389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2251,156 +2408,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="28" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="28" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="28" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="28" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2409,189 +2566,189 @@
     <row r="14" spans="2:5" ht="16.5" customHeight="1"/>
     <row r="15" spans="2:5" ht="16.5" customHeight="1"/>
     <row r="16" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B16" s="36"/>
+      <c r="B16" s="31"/>
     </row>
     <row r="17" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="23" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="33" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="33" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="37"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="33" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="33" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="33" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="33" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="33" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="33" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2603,12 +2760,12 @@
     <row r="36" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="37" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="38" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="35" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3576,28 +3733,28 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" location="gaf0487d2e8711bf1c9e7daa6e61e05888" tooltip="Default ADC line access macro." display="https://doc.riot-os.org/group__drivers__periph__adc.html - gaf0487d2e8711bf1c9e7daa6e61e05888"/>
-    <hyperlink ref="E19" r:id="rId2" location="esp32_adc_channels" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_adc_channels"/>
-    <hyperlink ref="B20" r:id="rId3" location="gad7999c048ca3b0783f3fb62b93b056db" tooltip="Default PWM access macro." display="https://doc.riot-os.org/group__drivers__periph__pwm.html - gad7999c048ca3b0783f3fb62b93b056db"/>
-    <hyperlink ref="E20" r:id="rId4" location="esp32_pwm_channels" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_pwm_channels"/>
-    <hyperlink ref="B21" r:id="rId5" location="gad7999c048ca3b0783f3fb62b93b056db" tooltip="Default PWM access macro." display="https://doc.riot-os.org/group__drivers__periph__pwm.html - gad7999c048ca3b0783f3fb62b93b056db"/>
-    <hyperlink ref="E21" r:id="rId6" location="esp32_pwm_channels" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_pwm_channels"/>
-    <hyperlink ref="B22" r:id="rId7" location="ga9f14916eda80b19ff41d08e25eee56fb" tooltip="Default I2C device access macro." display="https://doc.riot-os.org/group__drivers__periph__i2c.html - ga9f14916eda80b19ff41d08e25eee56fb"/>
-    <hyperlink ref="E22" r:id="rId8" location="esp32_i2c_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_i2c_interfaces"/>
-    <hyperlink ref="B23" r:id="rId9" location="ga9f14916eda80b19ff41d08e25eee56fb" tooltip="Default I2C device access macro." display="https://doc.riot-os.org/group__drivers__periph__i2c.html - ga9f14916eda80b19ff41d08e25eee56fb"/>
-    <hyperlink ref="E23" r:id="rId10" location="esp32_i2c_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_i2c_interfaces"/>
-    <hyperlink ref="B25" r:id="rId11" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9"/>
-    <hyperlink ref="E25" r:id="rId12" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces"/>
-    <hyperlink ref="B26" r:id="rId13" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9"/>
-    <hyperlink ref="E26" r:id="rId14" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces"/>
-    <hyperlink ref="B27" r:id="rId15" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9"/>
-    <hyperlink ref="E27" r:id="rId16" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces"/>
-    <hyperlink ref="B28" r:id="rId17" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9"/>
-    <hyperlink ref="E28" r:id="rId18" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces"/>
-    <hyperlink ref="B29" r:id="rId19" location="gafc5afd63560d27731d2517b3005f3294" tooltip="Default UART device access macro." display="https://doc.riot-os.org/group__drivers__periph__uart.html - gafc5afd63560d27731d2517b3005f3294"/>
-    <hyperlink ref="E29" r:id="rId20" location="esp32_uart_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_uart_interfaces"/>
-    <hyperlink ref="B30" r:id="rId21" location="gafc5afd63560d27731d2517b3005f3294" tooltip="Default UART device access macro." display="https://doc.riot-os.org/group__drivers__periph__uart.html - gafc5afd63560d27731d2517b3005f3294"/>
-    <hyperlink ref="E30" r:id="rId22" location="esp32_uart_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_uart_interfaces"/>
+    <hyperlink ref="B19" r:id="rId1" location="gaf0487d2e8711bf1c9e7daa6e61e05888" tooltip="Default ADC line access macro." display="https://doc.riot-os.org/group__drivers__periph__adc.html - gaf0487d2e8711bf1c9e7daa6e61e05888" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E19" r:id="rId2" location="esp32_adc_channels" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_adc_channels" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B20" r:id="rId3" location="gad7999c048ca3b0783f3fb62b93b056db" tooltip="Default PWM access macro." display="https://doc.riot-os.org/group__drivers__periph__pwm.html - gad7999c048ca3b0783f3fb62b93b056db" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E20" r:id="rId4" location="esp32_pwm_channels" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_pwm_channels" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B21" r:id="rId5" location="gad7999c048ca3b0783f3fb62b93b056db" tooltip="Default PWM access macro." display="https://doc.riot-os.org/group__drivers__periph__pwm.html - gad7999c048ca3b0783f3fb62b93b056db" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E21" r:id="rId6" location="esp32_pwm_channels" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_pwm_channels" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B22" r:id="rId7" location="ga9f14916eda80b19ff41d08e25eee56fb" tooltip="Default I2C device access macro." display="https://doc.riot-os.org/group__drivers__periph__i2c.html - ga9f14916eda80b19ff41d08e25eee56fb" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E22" r:id="rId8" location="esp32_i2c_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_i2c_interfaces" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B23" r:id="rId9" location="ga9f14916eda80b19ff41d08e25eee56fb" tooltip="Default I2C device access macro." display="https://doc.riot-os.org/group__drivers__periph__i2c.html - ga9f14916eda80b19ff41d08e25eee56fb" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E23" r:id="rId10" location="esp32_i2c_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_i2c_interfaces" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B25" r:id="rId11" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E25" r:id="rId12" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B26" r:id="rId13" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E26" r:id="rId14" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B27" r:id="rId15" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E27" r:id="rId16" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B28" r:id="rId17" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E28" r:id="rId18" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B29" r:id="rId19" location="gafc5afd63560d27731d2517b3005f3294" tooltip="Default UART device access macro." display="https://doc.riot-os.org/group__drivers__periph__uart.html - gafc5afd63560d27731d2517b3005f3294" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E29" r:id="rId20" location="esp32_uart_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_uart_interfaces" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B30" r:id="rId21" location="gafc5afd63560d27731d2517b3005f3294" tooltip="Default UART device access macro." display="https://doc.riot-os.org/group__drivers__periph__uart.html - gafc5afd63560d27731d2517b3005f3294" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E30" r:id="rId22" location="esp32_uart_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_uart_interfaces" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3606,7 +3763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -3635,493 +3792,493 @@
     <row r="1" spans="1:34" ht="16.5" customHeight="1"/>
     <row r="2" spans="1:34" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="16.5" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="43">
+      <c r="G3" s="36"/>
+      <c r="H3" s="38">
         <v>1</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="57" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="45" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="16.5" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="44">
+      <c r="G4" s="36"/>
+      <c r="H4" s="39">
         <v>2</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="55" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44" t="s">
+      <c r="K4" s="39"/>
+      <c r="L4" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="41" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="16.5" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="43">
+      <c r="G5" s="36"/>
+      <c r="H5" s="38">
         <v>3</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="54" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="40" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="16.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="55">
+      <c r="E6" s="39"/>
+      <c r="F6" s="50">
         <v>4</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="44">
+      <c r="G6" s="36"/>
+      <c r="H6" s="39">
         <v>4</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="55">
+      <c r="I6" s="36"/>
+      <c r="J6" s="50">
         <v>1</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44" t="s">
+      <c r="K6" s="39"/>
+      <c r="L6" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="41" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="16.5" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="54">
+      <c r="E7" s="38"/>
+      <c r="F7" s="49">
         <v>5</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="43">
+      <c r="G7" s="36"/>
+      <c r="H7" s="38">
         <v>5</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="54">
+      <c r="I7" s="36"/>
+      <c r="J7" s="49">
         <v>2</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="40" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="16.5" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="55">
+      <c r="E8" s="39"/>
+      <c r="F8" s="50">
         <v>6</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="44">
+      <c r="G8" s="36"/>
+      <c r="H8" s="39">
         <v>6</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="55">
+      <c r="I8" s="36"/>
+      <c r="J8" s="50">
         <v>42</v>
       </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44" t="s">
+      <c r="K8" s="39"/>
+      <c r="L8" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M8" s="46" t="s">
+      <c r="M8" s="41" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="16.5" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="54">
+      <c r="E9" s="38"/>
+      <c r="F9" s="49">
         <v>7</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="43">
+      <c r="G9" s="36"/>
+      <c r="H9" s="38">
         <v>7</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="54">
+      <c r="I9" s="36"/>
+      <c r="J9" s="49">
         <v>41</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="40" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="16.5" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="55">
+      <c r="E10" s="39"/>
+      <c r="F10" s="50">
         <v>15</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="44">
+      <c r="G10" s="36"/>
+      <c r="H10" s="39">
         <v>8</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="55">
+      <c r="I10" s="36"/>
+      <c r="J10" s="50">
         <v>40</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44" t="s">
+      <c r="K10" s="39"/>
+      <c r="L10" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="41" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="54">
+      <c r="E11" s="38"/>
+      <c r="F11" s="49">
         <v>16</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="43">
+      <c r="G11" s="36"/>
+      <c r="H11" s="38">
         <v>9</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="54">
+      <c r="I11" s="36"/>
+      <c r="J11" s="49">
         <v>39</v>
       </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43" t="s">
+      <c r="K11" s="38"/>
+      <c r="L11" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="40" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="16.5" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="55">
+      <c r="E12" s="39"/>
+      <c r="F12" s="50">
         <v>17</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="44">
+      <c r="G12" s="36"/>
+      <c r="H12" s="39">
         <v>10</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="55">
+      <c r="I12" s="36"/>
+      <c r="J12" s="50">
         <v>38</v>
       </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44" t="s">
+      <c r="K12" s="39"/>
+      <c r="L12" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M12" s="46" t="s">
+      <c r="M12" s="41" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="16.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="54">
+      <c r="E13" s="38"/>
+      <c r="F13" s="49">
         <v>18</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="43">
+      <c r="G13" s="36"/>
+      <c r="H13" s="38">
         <v>11</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="59">
+      <c r="I13" s="36"/>
+      <c r="J13" s="54">
         <v>37</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="M13" s="61" t="s">
+      <c r="M13" s="56" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="16.5" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="55">
+      <c r="E14" s="39"/>
+      <c r="F14" s="50">
         <v>8</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="44">
+      <c r="G14" s="36"/>
+      <c r="H14" s="39">
         <v>12</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="59">
+      <c r="I14" s="36"/>
+      <c r="J14" s="54">
         <v>36</v>
       </c>
-      <c r="K14" s="59" t="s">
+      <c r="K14" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="L14" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="M14" s="61" t="s">
+      <c r="M14" s="56" t="s">
         <v>154</v>
       </c>
       <c r="AH14" s="2"/>
     </row>
     <row r="15" spans="1:34" ht="16.5" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="62">
+      <c r="E15" s="58"/>
+      <c r="F15" s="57">
         <v>3</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="43">
+      <c r="G15" s="36"/>
+      <c r="H15" s="38">
         <v>13</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="59">
+      <c r="I15" s="36"/>
+      <c r="J15" s="54">
         <v>35</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="61" t="s">
+      <c r="M15" s="56" t="s">
         <v>155</v>
       </c>
       <c r="AH15" s="2"/>
     </row>
     <row r="16" spans="1:34" ht="16.5" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62">
+      <c r="E16" s="58"/>
+      <c r="F16" s="57">
         <v>46</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="44">
+      <c r="G16" s="36"/>
+      <c r="H16" s="39">
         <v>14</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="62">
+      <c r="I16" s="36"/>
+      <c r="J16" s="57">
         <v>0</v>
       </c>
-      <c r="K16" s="62" t="s">
+      <c r="K16" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="L16" s="63" t="s">
+      <c r="L16" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="M16" s="64" t="s">
+      <c r="M16" s="59" t="s">
         <v>156</v>
       </c>
       <c r="AH16" s="2"/>
     </row>
     <row r="17" spans="1:34" ht="16.5" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="54">
+      <c r="E17" s="38"/>
+      <c r="F17" s="49">
         <v>9</v>
       </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="43">
+      <c r="G17" s="36"/>
+      <c r="H17" s="38">
         <v>15</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="62">
+      <c r="I17" s="36"/>
+      <c r="J17" s="57">
         <v>45</v>
       </c>
-      <c r="K17" s="62"/>
-      <c r="L17" s="63" t="s">
+      <c r="K17" s="57"/>
+      <c r="L17" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="M17" s="64" t="s">
+      <c r="M17" s="59" t="s">
         <v>186</v>
       </c>
       <c r="AH17" s="2"/>
     </row>
     <row r="18" spans="1:34" ht="16.5" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="55">
+      <c r="E18" s="39"/>
+      <c r="F18" s="50">
         <v>10</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="44">
+      <c r="G18" s="36"/>
+      <c r="H18" s="39">
         <v>16</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="55">
+      <c r="I18" s="36"/>
+      <c r="J18" s="50">
         <v>48</v>
       </c>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44" t="s">
+      <c r="K18" s="39"/>
+      <c r="L18" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M18" s="46" t="s">
+      <c r="M18" s="41" t="s">
         <v>157</v>
       </c>
       <c r="Q18" s="10"/>
@@ -4138,29 +4295,29 @@
     </row>
     <row r="19" spans="1:34" ht="16.5" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="54">
+      <c r="E19" s="38"/>
+      <c r="F19" s="49">
         <v>11</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="43">
+      <c r="G19" s="36"/>
+      <c r="H19" s="38">
         <v>17</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="54">
+      <c r="I19" s="36"/>
+      <c r="J19" s="49">
         <v>47</v>
       </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43" t="s">
+      <c r="K19" s="38"/>
+      <c r="L19" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M19" s="45" t="s">
+      <c r="M19" s="40" t="s">
         <v>158</v>
       </c>
       <c r="Q19" s="10"/>
@@ -4177,29 +4334,29 @@
     </row>
     <row r="20" spans="1:34" ht="16.5" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="55">
+      <c r="E20" s="39"/>
+      <c r="F20" s="50">
         <v>12</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="44">
+      <c r="G20" s="36"/>
+      <c r="H20" s="39">
         <v>18</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="55">
+      <c r="I20" s="36"/>
+      <c r="J20" s="50">
         <v>21</v>
       </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44" t="s">
+      <c r="K20" s="39"/>
+      <c r="L20" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M20" s="46" t="s">
+      <c r="M20" s="41" t="s">
         <v>159</v>
       </c>
       <c r="AE20" s="2"/>
@@ -4209,36 +4366,36 @@
     </row>
     <row r="21" spans="1:34" ht="16.5" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="54">
+      <c r="E21" s="38"/>
+      <c r="F21" s="49">
         <v>13</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="43">
+      <c r="G21" s="36"/>
+      <c r="H21" s="38">
         <v>19</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="54">
+      <c r="I21" s="36"/>
+      <c r="J21" s="49">
         <v>20</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43" t="s">
+      <c r="K21" s="38"/>
+      <c r="L21" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="45" t="s">
+      <c r="M21" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -4251,29 +4408,29 @@
     </row>
     <row r="22" spans="1:34" ht="16.5" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="55">
+      <c r="E22" s="39"/>
+      <c r="F22" s="50">
         <v>14</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="44">
+      <c r="G22" s="36"/>
+      <c r="H22" s="39">
         <v>20</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="55">
+      <c r="I22" s="36"/>
+      <c r="J22" s="50">
         <v>19</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44" t="s">
+      <c r="K22" s="39"/>
+      <c r="L22" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M22" s="46" t="s">
+      <c r="M22" s="41" t="s">
         <v>161</v>
       </c>
       <c r="Q22" s="10"/>
@@ -4292,29 +4449,29 @@
       <c r="AH22" s="2"/>
     </row>
     <row r="23" spans="1:34" ht="16.5" customHeight="1">
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="56" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="43">
+      <c r="G23" s="36"/>
+      <c r="H23" s="38">
         <v>21</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="57" t="s">
+      <c r="I23" s="36"/>
+      <c r="J23" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50" t="s">
+      <c r="K23" s="45"/>
+      <c r="L23" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="50" t="s">
+      <c r="M23" s="45" t="s">
         <v>140</v>
       </c>
       <c r="Q23" s="10"/>
@@ -4333,29 +4490,29 @@
       <c r="AH23" s="2"/>
     </row>
     <row r="24" spans="1:34" ht="16.5" customHeight="1">
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="57" t="s">
+      <c r="E24" s="45"/>
+      <c r="F24" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="44">
+      <c r="G24" s="36"/>
+      <c r="H24" s="39">
         <v>22</v>
       </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="57" t="s">
+      <c r="I24" s="36"/>
+      <c r="J24" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50" t="s">
+      <c r="K24" s="45"/>
+      <c r="L24" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="M24" s="50" t="s">
+      <c r="M24" s="45" t="s">
         <v>140</v>
       </c>
       <c r="Q24" s="10"/>
@@ -4374,20 +4531,20 @@
       <c r="AH24" s="2"/>
     </row>
     <row r="25" spans="1:34" ht="16.5" customHeight="1">
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="53" t="s">
         <v>162</v>
       </c>
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34" ht="16.5" customHeight="1">
-      <c r="K26" s="66"/>
+      <c r="K26" s="61"/>
       <c r="M26" s="9" t="s">
         <v>164</v>
       </c>
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:34" ht="16.5" customHeight="1">
-      <c r="K27" s="65"/>
+      <c r="K27" s="60"/>
       <c r="M27" s="9" t="s">
         <v>163</v>
       </c>
@@ -4396,7 +4553,7 @@
     <row r="28" spans="1:34" ht="16.5" customHeight="1">
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="67"/>
+      <c r="M28" s="62"/>
       <c r="AH28" s="2"/>
     </row>
     <row r="29" spans="1:34" ht="16.5" customHeight="1">
@@ -5409,11 +5566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -5438,535 +5595,535 @@
     <row r="1" spans="1:34" ht="16.5" customHeight="1"/>
     <row r="2" spans="1:34" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="16.5" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="43">
+      <c r="G3" s="36"/>
+      <c r="H3" s="38">
         <v>1</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="57" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="45" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="16.5" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="44">
+      <c r="G4" s="36"/>
+      <c r="H4" s="39">
         <v>2</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="55" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44" t="s">
+      <c r="K4" s="39"/>
+      <c r="L4" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="41" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="16.5" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="43">
+      <c r="G5" s="36"/>
+      <c r="H5" s="38">
         <v>3</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="54" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="40" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="16.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="50">
         <v>4</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="44">
+      <c r="G6" s="36"/>
+      <c r="H6" s="39">
         <v>4</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="55">
+      <c r="I6" s="36"/>
+      <c r="J6" s="50">
         <v>1</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="41" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="16.5" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="49">
         <v>5</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="43">
+      <c r="G7" s="36"/>
+      <c r="H7" s="38">
         <v>5</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="54">
+      <c r="I7" s="36"/>
+      <c r="J7" s="49">
         <v>2</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="40" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="16.5" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="50">
         <v>6</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="44">
+      <c r="G8" s="36"/>
+      <c r="H8" s="39">
         <v>6</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="55">
+      <c r="I8" s="36"/>
+      <c r="J8" s="50">
         <v>42</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M8" s="46" t="s">
+      <c r="M8" s="41" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="16.5" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="49">
         <v>7</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="43">
+      <c r="G9" s="36"/>
+      <c r="H9" s="38">
         <v>7</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="54">
+      <c r="I9" s="36"/>
+      <c r="J9" s="49">
         <v>41</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="L9" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="40" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="16.5" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="50">
         <v>15</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="44">
+      <c r="G10" s="36"/>
+      <c r="H10" s="39">
         <v>8</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="55">
+      <c r="I10" s="36"/>
+      <c r="J10" s="50">
         <v>40</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="41" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="49">
         <v>16</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="43">
+      <c r="G11" s="36"/>
+      <c r="H11" s="38">
         <v>9</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="54">
+      <c r="I11" s="36"/>
+      <c r="J11" s="49">
         <v>39</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="L11" s="43" t="s">
+      <c r="L11" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="40" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="16.5" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="50">
         <v>17</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="44">
+      <c r="G12" s="36"/>
+      <c r="H12" s="39">
         <v>10</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="55">
+      <c r="I12" s="36"/>
+      <c r="J12" s="50">
         <v>38</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M12" s="46" t="s">
+      <c r="M12" s="41" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="16.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="49">
         <v>18</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="43">
+      <c r="G13" s="36"/>
+      <c r="H13" s="38">
         <v>11</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="68">
+      <c r="I13" s="36"/>
+      <c r="J13" s="63">
         <v>37</v>
       </c>
-      <c r="K13" s="68" t="s">
-        <v>165</v>
-      </c>
-      <c r="L13" s="69" t="s">
+      <c r="K13" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="L13" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="M13" s="70" t="s">
+      <c r="M13" s="65" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="16.5" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="50">
         <v>8</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="44">
+      <c r="G14" s="36"/>
+      <c r="H14" s="39">
         <v>12</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="68">
+      <c r="I14" s="36"/>
+      <c r="J14" s="63">
         <v>36</v>
       </c>
-      <c r="K14" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="L14" s="69" t="s">
+      <c r="K14" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="L14" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="M14" s="70" t="s">
+      <c r="M14" s="65" t="s">
         <v>154</v>
       </c>
       <c r="AH14" s="2"/>
     </row>
     <row r="15" spans="1:34" ht="16.5" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="57">
         <v>3</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="43">
+      <c r="G15" s="36"/>
+      <c r="H15" s="38">
         <v>13</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="68">
+      <c r="I15" s="36"/>
+      <c r="J15" s="63">
         <v>35</v>
       </c>
-      <c r="K15" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="L15" s="69" t="s">
+      <c r="K15" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="L15" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="70" t="s">
+      <c r="M15" s="65" t="s">
         <v>155</v>
       </c>
       <c r="AH15" s="2"/>
     </row>
     <row r="16" spans="1:34" ht="16.5" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="57">
         <v>46</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="44">
+      <c r="G16" s="36"/>
+      <c r="H16" s="39">
         <v>14</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="71">
+      <c r="I16" s="36"/>
+      <c r="J16" s="66">
         <v>0</v>
       </c>
-      <c r="K16" s="71" t="s">
+      <c r="K16" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="L16" s="72" t="s">
+      <c r="L16" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="M16" s="73" t="s">
+      <c r="M16" s="68" t="s">
         <v>156</v>
       </c>
       <c r="AH16" s="2"/>
     </row>
     <row r="17" spans="1:34" ht="16.5" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="49">
         <v>9</v>
       </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="43">
+      <c r="G17" s="36"/>
+      <c r="H17" s="38">
         <v>15</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="62">
+      <c r="I17" s="36"/>
+      <c r="J17" s="57">
         <v>45</v>
       </c>
-      <c r="K17" s="62" t="s">
+      <c r="K17" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="L17" s="63" t="s">
+      <c r="L17" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="M17" s="64" t="s">
+      <c r="M17" s="59" t="s">
         <v>186</v>
       </c>
       <c r="AH17" s="2"/>
     </row>
     <row r="18" spans="1:34" ht="16.5" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="50">
         <v>10</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="44">
+      <c r="G18" s="36"/>
+      <c r="H18" s="39">
         <v>16</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="55">
+      <c r="I18" s="36"/>
+      <c r="J18" s="50">
         <v>48</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="L18" s="44" t="s">
+      <c r="L18" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M18" s="46" t="s">
+      <c r="M18" s="41" t="s">
         <v>157</v>
       </c>
       <c r="Q18" s="10"/>
@@ -5983,33 +6140,33 @@
     </row>
     <row r="19" spans="1:34" ht="16.5" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="49">
         <v>11</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="43">
+      <c r="G19" s="36"/>
+      <c r="H19" s="38">
         <v>17</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="54">
+      <c r="I19" s="36"/>
+      <c r="J19" s="49">
         <v>47</v>
       </c>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="L19" s="43" t="s">
+      <c r="L19" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M19" s="45" t="s">
+      <c r="M19" s="40" t="s">
         <v>158</v>
       </c>
       <c r="Q19" s="10"/>
@@ -6026,31 +6183,31 @@
     </row>
     <row r="20" spans="1:34" ht="16.5" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="50">
         <v>12</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="44">
+      <c r="G20" s="36"/>
+      <c r="H20" s="39">
         <v>18</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="55">
+      <c r="I20" s="36"/>
+      <c r="J20" s="50">
         <v>21</v>
       </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44" t="s">
+      <c r="K20" s="39"/>
+      <c r="L20" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M20" s="46" t="s">
+      <c r="M20" s="41" t="s">
         <v>159</v>
       </c>
       <c r="AE20" s="2"/>
@@ -6060,38 +6217,38 @@
     </row>
     <row r="21" spans="1:34" ht="16.5" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="49">
         <v>13</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="43">
+      <c r="G21" s="36"/>
+      <c r="H21" s="38">
         <v>19</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="54">
+      <c r="I21" s="36"/>
+      <c r="J21" s="49">
         <v>20</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43" t="s">
+      <c r="K21" s="38"/>
+      <c r="L21" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="45" t="s">
+      <c r="M21" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -6104,29 +6261,29 @@
     </row>
     <row r="22" spans="1:34" ht="16.5" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="55">
+      <c r="E22" s="39"/>
+      <c r="F22" s="50">
         <v>14</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="44">
+      <c r="G22" s="36"/>
+      <c r="H22" s="39">
         <v>20</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="55">
+      <c r="I22" s="36"/>
+      <c r="J22" s="50">
         <v>19</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44" t="s">
+      <c r="K22" s="39"/>
+      <c r="L22" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M22" s="46" t="s">
+      <c r="M22" s="41" t="s">
         <v>171</v>
       </c>
       <c r="Q22" s="10"/>
@@ -6145,29 +6302,29 @@
       <c r="AH22" s="2"/>
     </row>
     <row r="23" spans="1:34" ht="16.5" customHeight="1">
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="56" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="43">
+      <c r="G23" s="36"/>
+      <c r="H23" s="38">
         <v>21</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="57" t="s">
+      <c r="I23" s="36"/>
+      <c r="J23" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50" t="s">
+      <c r="K23" s="45"/>
+      <c r="L23" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="50" t="s">
+      <c r="M23" s="45" t="s">
         <v>140</v>
       </c>
       <c r="Q23" s="10"/>
@@ -6186,29 +6343,29 @@
       <c r="AH23" s="2"/>
     </row>
     <row r="24" spans="1:34" ht="16.5" customHeight="1">
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="57" t="s">
+      <c r="E24" s="45"/>
+      <c r="F24" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="44">
+      <c r="G24" s="36"/>
+      <c r="H24" s="39">
         <v>22</v>
       </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="57" t="s">
+      <c r="I24" s="36"/>
+      <c r="J24" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50" t="s">
+      <c r="K24" s="45"/>
+      <c r="L24" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="M24" s="50" t="s">
+      <c r="M24" s="45" t="s">
         <v>140</v>
       </c>
       <c r="Q24" s="10"/>
@@ -6227,20 +6384,20 @@
       <c r="AH24" s="2"/>
     </row>
     <row r="25" spans="1:34" ht="16.5" customHeight="1">
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="53" t="s">
         <v>162</v>
       </c>
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34" ht="16.5" customHeight="1">
-      <c r="K26" s="66"/>
+      <c r="K26" s="61"/>
       <c r="M26" s="9" t="s">
         <v>164</v>
       </c>
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:34" ht="16.5" customHeight="1">
-      <c r="K27" s="65"/>
+      <c r="K27" s="60"/>
       <c r="M27" s="9" t="s">
         <v>163</v>
       </c>
@@ -6249,7 +6406,7 @@
     <row r="28" spans="1:34" ht="16.5" customHeight="1">
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="67"/>
+      <c r="M28" s="62"/>
       <c r="AH28" s="2"/>
     </row>
     <row r="29" spans="1:34" ht="16.5" customHeight="1">
@@ -7256,13 +7413,13 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7292,12 +7449,12 @@
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="13" t="s">
         <v>0</v>
       </c>

--- a/docs/ESP32-S3-willy.xlsx
+++ b/docs/ESP32-S3-willy.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\03.robotics\esp32_willy\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0326769A-7DF2-44AD-BF71-6B864DE0F400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220"/>
   </bookViews>
   <sheets>
     <sheet name="esp32-s3" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="196">
   <si>
     <t>ASSIGNMENT</t>
   </si>
@@ -529,9 +528,6 @@
     <t>MTCK, GPIO39, CLK_OUT3, SUBSPICS1</t>
   </si>
   <si>
-    <t>GPIO38, FSPIWP, SUBSPIWP, RGB LED</t>
-  </si>
-  <si>
     <t>SPIDQS, GPIO37, FSPIQ, SUBSPIQ</t>
   </si>
   <si>
@@ -542,9 +538,6 @@
   </si>
   <si>
     <t>RTC_GPIO0, GPIO0</t>
-  </si>
-  <si>
-    <t>GPIO48, SPICLK_N, SUBSPICLK_N_DIFF</t>
   </si>
   <si>
     <t>GPIO47, SPICLK_P, SUBSPICLK_P_DIFF</t>
@@ -582,28 +575,188 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>Allocation</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_M1_C1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_M1_C2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_M2_C1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_M2_C2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_SENSE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOT_EN</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3_M1_C1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP_TX</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3_M1_C2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO38, FSPIWP, SUBSPIWP</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP_RX</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>DO NOT USE</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>DO NOT USE</t>
+    <t>I2C_SDA</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>DO NOT USE</t>
+    <t>INA226_ALE</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Allocation</t>
+    <r>
+      <t xml:space="preserve">GPIO46 (should be low when boot), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>USE OUTPUT_ONLY</t>
+    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Allocation</t>
+    <t>I2C_SCL</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GPIO45 (should be low when boot), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>USE OUTPUT_ONLY</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2_M1_C1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3_M2_C1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GPIO48, SPICLK_N, SUBSPICLK_N_DIFF, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RGB LED</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2_M1_C2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3_M2_C2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2_M2_C1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3_SENSE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2_M2_C2</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
       <t xml:space="preserve">RTC_GPIO20, GPIO20, U1CTS, ADC2_CH9, CLK_OUT1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>USB_D+</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2_SENSE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RTC_GPIO19, GPIO19, U1RTS, ADC2_CH8, CLK_OUT2, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>USB_D-</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO38, FSPIWP, SUBSPIWP</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GPIO46 (should be low when boot), </t>
     </r>
     <r>
       <rPr>
@@ -613,80 +766,8 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>USB_D+</t>
+      <t>USE OUTPUT_ONLY</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RTC_GPIO19, GPIO19, U1RTS, ADC2_CH8, CLK_OUT2, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>USB_D-</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL1_M1_PWM1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL1_M1_ENC2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL1_M2_PWM1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL1_M2_ENC2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL1_M1_ENC1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL2_M1_ENC1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL2_M1_ENC2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL1_M1_PWM2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL1_M2_ENC1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL1_M2_PWM2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL2_M2_ENC1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL2_M2_ENC2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL2_M2_PWM1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL2_M2_PWM2</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -706,71 +787,15 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">GPIO46 (should be low when boot), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>USE OUTPUT_ONLY</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">GPIO38, FSPIWP, SUBSPIWP, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>RGB LED</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL2_M2_PWM2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL2_M1_PWM1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL2_M1_PWM2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL2_M2_ENC2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEEL2_M2_PWM1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>BATT_SENSE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not use for OctalPSRAM</t>
+    <t>GPIO48, SPICLK_N, SUBSPICLK_N_DIFF, RGB LED</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,8 +992,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,6 +1094,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,7 +1199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1358,6 +1396,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1388,15 +1436,15 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>601521</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>160746</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>681446</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1493,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1537,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1581,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1625,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1669,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1713,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1757,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,7 +1806,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,7 +1850,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1894,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1938,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1934,7 +1982,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,7 +2026,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2070,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3A7C8C-56C5-4240-B475-E0E7B8A50618}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E3A7C8C-56C5-4240-B475-E0E7B8A50618}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2114,7 @@
         <xdr:cNvPr id="2" name="image10.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2100,7 +2148,7 @@
         <xdr:cNvPr id="3" name="image11.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2134,7 +2182,7 @@
         <xdr:cNvPr id="4" name="image13.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2216,7 @@
         <xdr:cNvPr id="5" name="image14.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,19 +2437,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.54296875" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" customWidth="1"/>
     <col min="5" max="5" width="41.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.54296875" customWidth="1"/>
     <col min="7" max="26" width="8.7265625" customWidth="1"/>
@@ -2592,7 +2640,7 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="19" spans="2:5" ht="140.5" thickBot="1">
       <c r="B19" s="33" t="s">
         <v>79</v>
       </c>
@@ -2604,7 +2652,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="20" spans="2:5" ht="70.5" thickBot="1">
       <c r="B20" s="33" t="s">
         <v>82</v>
       </c>
@@ -2618,7 +2666,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="21" spans="2:5" ht="54" thickBot="1">
       <c r="B21" s="33" t="s">
         <v>85</v>
       </c>
@@ -2632,7 +2680,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="22" spans="2:5" ht="19" thickBot="1">
       <c r="B22" s="33" t="s">
         <v>87</v>
       </c>
@@ -2644,7 +2692,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="23" spans="2:5" ht="19" thickBot="1">
       <c r="B23" s="33" t="s">
         <v>90</v>
       </c>
@@ -2656,7 +2704,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="24" spans="2:5" ht="53.5" thickBot="1">
       <c r="B24" s="32" t="s">
         <v>92</v>
       </c>
@@ -2668,7 +2716,7 @@
       </c>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="25" spans="2:5" ht="35.5" thickBot="1">
       <c r="B25" s="33" t="s">
         <v>94</v>
       </c>
@@ -2682,7 +2730,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="26" spans="2:5" ht="35.5" thickBot="1">
       <c r="B26" s="33" t="s">
         <v>98</v>
       </c>
@@ -2696,7 +2744,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="27" spans="2:5" ht="35.5" thickBot="1">
       <c r="B27" s="33" t="s">
         <v>100</v>
       </c>
@@ -2710,7 +2758,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="28" spans="2:5" ht="35.5" thickBot="1">
       <c r="B28" s="33" t="s">
         <v>102</v>
       </c>
@@ -2724,7 +2772,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="29" spans="2:5" ht="53" thickBot="1">
       <c r="B29" s="33" t="s">
         <v>104</v>
       </c>
@@ -2738,7 +2786,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="30" spans="2:5" ht="53" thickBot="1">
       <c r="B30" s="33" t="s">
         <v>108</v>
       </c>
@@ -3733,28 +3781,28 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" location="gaf0487d2e8711bf1c9e7daa6e61e05888" tooltip="Default ADC line access macro." display="https://doc.riot-os.org/group__drivers__periph__adc.html - gaf0487d2e8711bf1c9e7daa6e61e05888" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E19" r:id="rId2" location="esp32_adc_channels" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_adc_channels" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B20" r:id="rId3" location="gad7999c048ca3b0783f3fb62b93b056db" tooltip="Default PWM access macro." display="https://doc.riot-os.org/group__drivers__periph__pwm.html - gad7999c048ca3b0783f3fb62b93b056db" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E20" r:id="rId4" location="esp32_pwm_channels" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_pwm_channels" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B21" r:id="rId5" location="gad7999c048ca3b0783f3fb62b93b056db" tooltip="Default PWM access macro." display="https://doc.riot-os.org/group__drivers__periph__pwm.html - gad7999c048ca3b0783f3fb62b93b056db" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E21" r:id="rId6" location="esp32_pwm_channels" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_pwm_channels" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B22" r:id="rId7" location="ga9f14916eda80b19ff41d08e25eee56fb" tooltip="Default I2C device access macro." display="https://doc.riot-os.org/group__drivers__periph__i2c.html - ga9f14916eda80b19ff41d08e25eee56fb" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E22" r:id="rId8" location="esp32_i2c_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_i2c_interfaces" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B23" r:id="rId9" location="ga9f14916eda80b19ff41d08e25eee56fb" tooltip="Default I2C device access macro." display="https://doc.riot-os.org/group__drivers__periph__i2c.html - ga9f14916eda80b19ff41d08e25eee56fb" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E23" r:id="rId10" location="esp32_i2c_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_i2c_interfaces" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B25" r:id="rId11" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E25" r:id="rId12" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B26" r:id="rId13" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E26" r:id="rId14" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B27" r:id="rId15" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E27" r:id="rId16" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B28" r:id="rId17" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E28" r:id="rId18" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B29" r:id="rId19" location="gafc5afd63560d27731d2517b3005f3294" tooltip="Default UART device access macro." display="https://doc.riot-os.org/group__drivers__periph__uart.html - gafc5afd63560d27731d2517b3005f3294" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E29" r:id="rId20" location="esp32_uart_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_uart_interfaces" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B30" r:id="rId21" location="gafc5afd63560d27731d2517b3005f3294" tooltip="Default UART device access macro." display="https://doc.riot-os.org/group__drivers__periph__uart.html - gafc5afd63560d27731d2517b3005f3294" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E30" r:id="rId22" location="esp32_uart_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_uart_interfaces" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B19" r:id="rId1" location="gaf0487d2e8711bf1c9e7daa6e61e05888" tooltip="Default ADC line access macro." display="https://doc.riot-os.org/group__drivers__periph__adc.html - gaf0487d2e8711bf1c9e7daa6e61e05888"/>
+    <hyperlink ref="E19" r:id="rId2" location="esp32_adc_channels" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_adc_channels"/>
+    <hyperlink ref="B20" r:id="rId3" location="gad7999c048ca3b0783f3fb62b93b056db" tooltip="Default PWM access macro." display="https://doc.riot-os.org/group__drivers__periph__pwm.html - gad7999c048ca3b0783f3fb62b93b056db"/>
+    <hyperlink ref="E20" r:id="rId4" location="esp32_pwm_channels" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_pwm_channels"/>
+    <hyperlink ref="B21" r:id="rId5" location="gad7999c048ca3b0783f3fb62b93b056db" tooltip="Default PWM access macro." display="https://doc.riot-os.org/group__drivers__periph__pwm.html - gad7999c048ca3b0783f3fb62b93b056db"/>
+    <hyperlink ref="E21" r:id="rId6" location="esp32_pwm_channels" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_pwm_channels"/>
+    <hyperlink ref="B22" r:id="rId7" location="ga9f14916eda80b19ff41d08e25eee56fb" tooltip="Default I2C device access macro." display="https://doc.riot-os.org/group__drivers__periph__i2c.html - ga9f14916eda80b19ff41d08e25eee56fb"/>
+    <hyperlink ref="E22" r:id="rId8" location="esp32_i2c_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_i2c_interfaces"/>
+    <hyperlink ref="B23" r:id="rId9" location="ga9f14916eda80b19ff41d08e25eee56fb" tooltip="Default I2C device access macro." display="https://doc.riot-os.org/group__drivers__periph__i2c.html - ga9f14916eda80b19ff41d08e25eee56fb"/>
+    <hyperlink ref="E23" r:id="rId10" location="esp32_i2c_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_i2c_interfaces"/>
+    <hyperlink ref="B25" r:id="rId11" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9"/>
+    <hyperlink ref="E25" r:id="rId12" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces"/>
+    <hyperlink ref="B26" r:id="rId13" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9"/>
+    <hyperlink ref="E26" r:id="rId14" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces"/>
+    <hyperlink ref="B27" r:id="rId15" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9"/>
+    <hyperlink ref="E27" r:id="rId16" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces"/>
+    <hyperlink ref="B28" r:id="rId17" location="gafb9420809bc7722e41488a090b53eaf9" tooltip="Default SPI device access macro." display="https://doc.riot-os.org/group__drivers__periph__spi.html - gafb9420809bc7722e41488a090b53eaf9"/>
+    <hyperlink ref="E28" r:id="rId18" location="esp32_spi_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_spi_interfaces"/>
+    <hyperlink ref="B29" r:id="rId19" location="gafc5afd63560d27731d2517b3005f3294" tooltip="Default UART device access macro." display="https://doc.riot-os.org/group__drivers__periph__uart.html - gafc5afd63560d27731d2517b3005f3294"/>
+    <hyperlink ref="E29" r:id="rId20" location="esp32_uart_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_uart_interfaces"/>
+    <hyperlink ref="B30" r:id="rId21" location="gafc5afd63560d27731d2517b3005f3294" tooltip="Default UART device access macro." display="https://doc.riot-os.org/group__drivers__periph__uart.html - gafc5afd63560d27731d2517b3005f3294"/>
+    <hyperlink ref="E30" r:id="rId22" location="esp32_uart_interfaces" display="https://doc.riot-os.org/group__cpu__esp32.html - esp32_uart_interfaces"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3763,11 +3811,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3799,19 +3847,21 @@
         <v>141</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>115</v>
       </c>
+      <c r="G2" s="74"/>
       <c r="H2" s="37" t="s">
         <v>114</v>
       </c>
+      <c r="I2" s="74"/>
       <c r="J2" s="37" t="s">
         <v>115</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L2" s="37" t="s">
         <v>141</v>
@@ -3885,7 +3935,7 @@
         <v>119</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F5" s="49" t="s">
         <v>36</v>
@@ -4099,7 +4149,7 @@
         <v>121</v>
       </c>
       <c r="M12" s="41" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="16.5" customHeight="1">
@@ -4123,13 +4173,13 @@
         <v>37</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="L13" s="55" t="s">
         <v>121</v>
       </c>
       <c r="M13" s="56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="16.5" customHeight="1">
@@ -4153,13 +4203,13 @@
         <v>36</v>
       </c>
       <c r="K14" s="54" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L14" s="55" t="s">
         <v>121</v>
       </c>
       <c r="M14" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH14" s="2"/>
     </row>
@@ -4184,20 +4234,20 @@
         <v>35</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L15" s="55" t="s">
         <v>121</v>
       </c>
       <c r="M15" s="56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH15" s="2"/>
     </row>
     <row r="16" spans="1:34" ht="16.5" customHeight="1">
       <c r="A16" s="2"/>
       <c r="C16" s="59" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>121</v>
@@ -4215,13 +4265,13 @@
         <v>0</v>
       </c>
       <c r="K16" s="57" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="L16" s="58" t="s">
         <v>121</v>
       </c>
       <c r="M16" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH16" s="2"/>
     </row>
@@ -4250,7 +4300,7 @@
         <v>121</v>
       </c>
       <c r="M17" s="59" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AH17" s="2"/>
     </row>
@@ -4279,7 +4329,7 @@
         <v>121</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -4318,7 +4368,7 @@
         <v>121</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="11"/>
@@ -4357,7 +4407,7 @@
         <v>121</v>
       </c>
       <c r="M20" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
@@ -4389,7 +4439,7 @@
         <v>121</v>
       </c>
       <c r="M21" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q21" s="69"/>
       <c r="R21" s="70"/>
@@ -4431,7 +4481,7 @@
         <v>121</v>
       </c>
       <c r="M22" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -4532,21 +4582,21 @@
     </row>
     <row r="25" spans="1:34" ht="16.5" customHeight="1">
       <c r="C25" s="53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34" ht="16.5" customHeight="1">
       <c r="K26" s="61"/>
       <c r="M26" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:34" ht="16.5" customHeight="1">
       <c r="K27" s="60"/>
       <c r="M27" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AH27" s="2"/>
     </row>
@@ -5566,11 +5616,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -5602,19 +5652,21 @@
         <v>141</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>115</v>
       </c>
+      <c r="G2" s="74"/>
       <c r="H2" s="37" t="s">
         <v>114</v>
       </c>
+      <c r="I2" s="74"/>
       <c r="J2" s="37" t="s">
         <v>115</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L2" s="37" t="s">
         <v>141</v>
@@ -5687,9 +5739,7 @@
       <c r="D5" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>165</v>
-      </c>
+      <c r="E5" s="49"/>
       <c r="F5" s="49" t="s">
         <v>36</v>
       </c>
@@ -5718,7 +5768,7 @@
         <v>121</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F6" s="50">
         <v>4</v>
@@ -5731,9 +5781,7 @@
       <c r="J6" s="50">
         <v>1</v>
       </c>
-      <c r="K6" s="39" t="s">
-        <v>194</v>
-      </c>
+      <c r="K6" s="39"/>
       <c r="L6" s="39" t="s">
         <v>121</v>
       </c>
@@ -5750,7 +5798,7 @@
         <v>121</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F7" s="49">
         <v>5</v>
@@ -5780,7 +5828,7 @@
         <v>121</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F8" s="50">
         <v>6</v>
@@ -5793,9 +5841,7 @@
       <c r="J8" s="50">
         <v>42</v>
       </c>
-      <c r="K8" s="39" t="s">
-        <v>177</v>
-      </c>
+      <c r="K8" s="39"/>
       <c r="L8" s="39" t="s">
         <v>121</v>
       </c>
@@ -5812,7 +5858,7 @@
         <v>121</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F9" s="49">
         <v>7</v>
@@ -5825,9 +5871,7 @@
       <c r="J9" s="49">
         <v>41</v>
       </c>
-      <c r="K9" s="38" t="s">
-        <v>178</v>
-      </c>
+      <c r="K9" s="38"/>
       <c r="L9" s="38" t="s">
         <v>121</v>
       </c>
@@ -5844,7 +5888,7 @@
         <v>121</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F10" s="50">
         <v>15</v>
@@ -5857,9 +5901,7 @@
       <c r="J10" s="50">
         <v>40</v>
       </c>
-      <c r="K10" s="39" t="s">
-        <v>190</v>
-      </c>
+      <c r="K10" s="39"/>
       <c r="L10" s="39" t="s">
         <v>121</v>
       </c>
@@ -5876,7 +5918,7 @@
         <v>121</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F11" s="49">
         <v>16</v>
@@ -5890,7 +5932,7 @@
         <v>39</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="L11" s="38" t="s">
         <v>121</v>
@@ -5908,7 +5950,7 @@
         <v>121</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F12" s="50">
         <v>17</v>
@@ -5922,13 +5964,13 @@
         <v>38</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="L12" s="39" t="s">
         <v>121</v>
       </c>
       <c r="M12" s="41" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="16.5" customHeight="1">
@@ -5940,7 +5982,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F13" s="49">
         <v>18</v>
@@ -5954,13 +5996,13 @@
         <v>37</v>
       </c>
       <c r="K13" s="63" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="L13" s="64" t="s">
         <v>121</v>
       </c>
       <c r="M13" s="65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="16.5" customHeight="1">
@@ -5972,7 +6014,7 @@
         <v>121</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F14" s="50">
         <v>8</v>
@@ -5986,13 +6028,13 @@
         <v>36</v>
       </c>
       <c r="K14" s="63" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="L14" s="64" t="s">
         <v>121</v>
       </c>
       <c r="M14" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH14" s="2"/>
     </row>
@@ -6005,7 +6047,7 @@
         <v>121</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F15" s="57">
         <v>3</v>
@@ -6019,27 +6061,25 @@
         <v>35</v>
       </c>
       <c r="K15" s="63" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="L15" s="64" t="s">
         <v>121</v>
       </c>
       <c r="M15" s="65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH15" s="2"/>
     </row>
     <row r="16" spans="1:34" ht="16.5" customHeight="1">
       <c r="A16" s="2"/>
       <c r="C16" s="59" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="58" t="s">
-        <v>191</v>
-      </c>
+      <c r="E16" s="58"/>
       <c r="F16" s="57">
         <v>46</v>
       </c>
@@ -6052,13 +6092,13 @@
         <v>0</v>
       </c>
       <c r="K16" s="66" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="L16" s="67" t="s">
         <v>121</v>
       </c>
       <c r="M16" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH16" s="2"/>
     </row>
@@ -6070,8 +6110,8 @@
       <c r="D17" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>178</v>
+      <c r="E17" s="39" t="s">
+        <v>179</v>
       </c>
       <c r="F17" s="49">
         <v>9</v>
@@ -6084,14 +6124,12 @@
       <c r="J17" s="57">
         <v>45</v>
       </c>
-      <c r="K17" s="57" t="s">
-        <v>185</v>
-      </c>
+      <c r="K17" s="57"/>
       <c r="L17" s="58" t="s">
         <v>121</v>
       </c>
       <c r="M17" s="59" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AH17" s="2"/>
     </row>
@@ -6104,7 +6142,7 @@
         <v>121</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F18" s="50">
         <v>10</v>
@@ -6124,7 +6162,7 @@
         <v>121</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -6147,7 +6185,7 @@
         <v>121</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F19" s="49">
         <v>11</v>
@@ -6161,13 +6199,13 @@
         <v>47</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L19" s="38" t="s">
         <v>121</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="11"/>
@@ -6190,7 +6228,7 @@
         <v>121</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F20" s="50">
         <v>12</v>
@@ -6203,12 +6241,14 @@
       <c r="J20" s="50">
         <v>21</v>
       </c>
-      <c r="K20" s="39"/>
+      <c r="K20" s="39" t="s">
+        <v>187</v>
+      </c>
       <c r="L20" s="39" t="s">
         <v>121</v>
       </c>
       <c r="M20" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
@@ -6224,7 +6264,7 @@
         <v>121</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F21" s="49">
         <v>13</v>
@@ -6234,15 +6274,15 @@
         <v>19</v>
       </c>
       <c r="I21" s="36"/>
-      <c r="J21" s="49">
+      <c r="J21" s="75">
         <v>20</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38" t="s">
+      <c r="K21" s="76"/>
+      <c r="L21" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="40" t="s">
-        <v>170</v>
+      <c r="M21" s="77" t="s">
+        <v>189</v>
       </c>
       <c r="Q21" s="69"/>
       <c r="R21" s="70"/>
@@ -6267,7 +6307,9 @@
       <c r="D22" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="39" t="s">
+        <v>190</v>
+      </c>
       <c r="F22" s="50">
         <v>14</v>
       </c>
@@ -6276,15 +6318,15 @@
         <v>20</v>
       </c>
       <c r="I22" s="36"/>
-      <c r="J22" s="50">
+      <c r="J22" s="75">
         <v>19</v>
       </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39" t="s">
+      <c r="K22" s="76"/>
+      <c r="L22" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="M22" s="41" t="s">
-        <v>171</v>
+      <c r="M22" s="77" t="s">
+        <v>191</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -6385,21 +6427,21 @@
     </row>
     <row r="25" spans="1:34" ht="16.5" customHeight="1">
       <c r="C25" s="53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34" ht="16.5" customHeight="1">
       <c r="K26" s="61"/>
       <c r="M26" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:34" ht="16.5" customHeight="1">
       <c r="K27" s="60"/>
       <c r="M27" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AH27" s="2"/>
     </row>
@@ -7419,7 +7461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
